--- a/media/eb_order/eb_order(request).xlsx
+++ b/media/eb_order/eb_order(request).xlsx
@@ -60,10 +60,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>{$PUBLISH_DATE$}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>作業報告書に基づく稼動実費精算とする。</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -243,6 +239,22 @@
   </si>
   <si>
     <t>〒{$SUBCONTRACTOR_POST_CODE$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>平成      年    月    日</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -987,59 +999,59 @@
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="I2" s="40" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="D3" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6"/>
       <c r="F6" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="F7" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="F8" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="F9" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:9" ht="19.5">
       <c r="F10" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="F11" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="37"/>
     </row>
@@ -1049,7 +1061,7 @@
     <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
@@ -1067,11 +1079,11 @@
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -1106,7 +1118,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
@@ -1135,11 +1147,11 @@
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1152,7 +1164,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1165,7 +1177,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1176,11 +1188,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1193,7 +1205,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1206,7 +1218,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1219,7 +1231,7 @@
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -1230,11 +1242,11 @@
     </row>
     <row r="29" spans="1:9" ht="27" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -1249,7 +1261,7 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -1262,7 +1274,7 @@
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -1275,7 +1287,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -1288,7 +1300,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
@@ -1299,11 +1311,11 @@
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1316,7 +1328,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -1329,7 +1341,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1342,7 +1354,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1355,7 +1367,7 @@
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -1366,7 +1378,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
